--- a/SSPs/Vehicle_Query_Request_SSP/artifacts/service_model/information_model/IEPD/documentation/VehicleQueryRequest.xlsx
+++ b/SSPs/Vehicle_Query_Request_SSP/artifacts/service_model/information_model/IEPD/documentation/VehicleQueryRequest.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1640" windowWidth="32480" windowHeight="15520"/>
+    <workbookView xWindow="40860" yWindow="-3000" windowWidth="32480" windowHeight="19320"/>
   </bookViews>
   <sheets>
-    <sheet name="Vehicle Query" sheetId="2" r:id="rId1"/>
+    <sheet name="Vehicle Query Request" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t>NCIC Code</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Field Name</t>
+  </si>
+  <si>
+    <t>Registration Inquiry by Region ((RQG)</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -506,8 +509,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -574,8 +579,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -601,6 +618,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -626,6 +644,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -928,701 +947,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="122.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="90.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="67" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="2" max="3" width="17.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="122.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="90.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="67" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" customHeight="1">
+    <row r="1" spans="1:9" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="23" customHeight="1">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1">
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:9" ht="24">
       <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="B10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="B16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="F16" s="13" t="s">
+      <c r="C16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="B17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17" t="s">
+      <c r="C18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="3" t="s">
+      <c r="B19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="I19" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="I20" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17" t="s">
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="F23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="24">
+      <c r="I23" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24">
       <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="3" t="s">
+      <c r="B24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="G24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="I26" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="B29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24">
+    <row r="30" spans="1:9" ht="24">
       <c r="B30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="17" t="s">
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24">
+    <row r="31" spans="1:9" ht="24">
       <c r="A31" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="2:8" ht="24">
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" ht="24">
       <c r="B33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="24">
+    <row r="34" spans="2:9" ht="24">
       <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:9">
       <c r="B35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="13" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="14"/>
+      <c r="G35" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="36" spans="2:9">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="D38" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
